--- a/input_sample/sample2.xlsx
+++ b/input_sample/sample2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Script\TestProgressRecord\input_sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C46CD4-3419-447F-B22D-7C10F578E4D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A736E01-A157-45AC-A1D5-8E4E8F42E65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13620" yWindow="4455" windowWidth="23490" windowHeight="13785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5700" yWindow="7290" windowWidth="23490" windowHeight="13785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テスト項目" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="25">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -474,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:U48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" topLeftCell="D27" workbookViewId="0">
+      <selection activeCell="S42" sqref="S42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -696,6 +696,292 @@
         <v>45700</v>
       </c>
     </row>
+    <row r="23" spans="15:21">
+      <c r="O23" t="s">
+        <v>6</v>
+      </c>
+      <c r="P23" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>45700</v>
+      </c>
+    </row>
+    <row r="24" spans="15:21">
+      <c r="O24" t="s">
+        <v>6</v>
+      </c>
+      <c r="P24" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="25" spans="15:21">
+      <c r="O25" t="s">
+        <v>6</v>
+      </c>
+      <c r="P25" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>45702</v>
+      </c>
+    </row>
+    <row r="26" spans="15:21">
+      <c r="O26" t="s">
+        <v>6</v>
+      </c>
+      <c r="P26" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>45703</v>
+      </c>
+    </row>
+    <row r="27" spans="15:21">
+      <c r="O27" t="s">
+        <v>6</v>
+      </c>
+      <c r="P27" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>45704</v>
+      </c>
+    </row>
+    <row r="28" spans="15:21">
+      <c r="O28" t="s">
+        <v>6</v>
+      </c>
+      <c r="P28" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>45705</v>
+      </c>
+    </row>
+    <row r="29" spans="15:21">
+      <c r="O29" t="s">
+        <v>6</v>
+      </c>
+      <c r="P29" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>45706</v>
+      </c>
+    </row>
+    <row r="30" spans="15:21">
+      <c r="O30" t="s">
+        <v>6</v>
+      </c>
+      <c r="P30" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>45707</v>
+      </c>
+    </row>
+    <row r="31" spans="15:21">
+      <c r="O31" t="s">
+        <v>6</v>
+      </c>
+      <c r="P31" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>45708</v>
+      </c>
+    </row>
+    <row r="32" spans="15:21">
+      <c r="O32" t="s">
+        <v>6</v>
+      </c>
+      <c r="P32" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>45709</v>
+      </c>
+    </row>
+    <row r="33" spans="15:17">
+      <c r="O33" t="s">
+        <v>6</v>
+      </c>
+      <c r="P33" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>45710</v>
+      </c>
+    </row>
+    <row r="34" spans="15:17">
+      <c r="O34" t="s">
+        <v>6</v>
+      </c>
+      <c r="P34" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>45711</v>
+      </c>
+    </row>
+    <row r="35" spans="15:17">
+      <c r="O35" t="s">
+        <v>6</v>
+      </c>
+      <c r="P35" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>45712</v>
+      </c>
+    </row>
+    <row r="36" spans="15:17">
+      <c r="O36" t="s">
+        <v>6</v>
+      </c>
+      <c r="P36" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>45713</v>
+      </c>
+    </row>
+    <row r="37" spans="15:17">
+      <c r="O37" t="s">
+        <v>6</v>
+      </c>
+      <c r="P37" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>45714</v>
+      </c>
+    </row>
+    <row r="38" spans="15:17">
+      <c r="O38" t="s">
+        <v>6</v>
+      </c>
+      <c r="P38" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>45715</v>
+      </c>
+    </row>
+    <row r="39" spans="15:17">
+      <c r="O39" t="s">
+        <v>6</v>
+      </c>
+      <c r="P39" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>45716</v>
+      </c>
+    </row>
+    <row r="40" spans="15:17">
+      <c r="O40" t="s">
+        <v>6</v>
+      </c>
+      <c r="P40" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="41" spans="15:17">
+      <c r="O41" t="s">
+        <v>6</v>
+      </c>
+      <c r="P41" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>45718</v>
+      </c>
+    </row>
+    <row r="42" spans="15:17">
+      <c r="O42" t="s">
+        <v>6</v>
+      </c>
+      <c r="P42" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>45719</v>
+      </c>
+    </row>
+    <row r="43" spans="15:17">
+      <c r="O43" t="s">
+        <v>6</v>
+      </c>
+      <c r="P43" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>45720</v>
+      </c>
+    </row>
+    <row r="44" spans="15:17">
+      <c r="O44" t="s">
+        <v>6</v>
+      </c>
+      <c r="P44" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>45721</v>
+      </c>
+    </row>
+    <row r="45" spans="15:17">
+      <c r="O45" t="s">
+        <v>6</v>
+      </c>
+      <c r="P45" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>45722</v>
+      </c>
+    </row>
+    <row r="46" spans="15:17">
+      <c r="O46" t="s">
+        <v>6</v>
+      </c>
+      <c r="P46" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>45723</v>
+      </c>
+    </row>
+    <row r="47" spans="15:17">
+      <c r="O47" t="s">
+        <v>6</v>
+      </c>
+      <c r="P47" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>45724</v>
+      </c>
+    </row>
+    <row r="48" spans="15:17">
+      <c r="O48" t="s">
+        <v>6</v>
+      </c>
+      <c r="P48" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>45725</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input_sample/sample2.xlsx
+++ b/input_sample/sample2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Script\TestProgressRecord\input_sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A736E01-A157-45AC-A1D5-8E4E8F42E65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9782764F-8721-4377-B915-041212E69AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="7290" windowWidth="23490" windowHeight="13785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7365" yWindow="600" windowWidth="23490" windowHeight="13785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テスト項目" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="34">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -148,6 +148,48 @@
   </si>
   <si>
     <t>Fixed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期待結果</t>
+    <rPh sb="0" eb="2">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ghds</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aah</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bad</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sda</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -476,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D27" workbookViewId="0">
-      <selection activeCell="S42" sqref="S42"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -525,6 +567,12 @@
       <c r="J10" t="s">
         <v>17</v>
       </c>
+      <c r="K10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" t="s">
+        <v>25</v>
+      </c>
       <c r="O10" t="s">
         <v>2</v>
       </c>
@@ -548,6 +596,9 @@
       <c r="A11">
         <v>1</v>
       </c>
+      <c r="K11" t="s">
+        <v>27</v>
+      </c>
       <c r="O11" t="s">
         <v>18</v>
       </c>
@@ -566,6 +617,9 @@
       <c r="A12">
         <v>2</v>
       </c>
+      <c r="K12" t="s">
+        <v>28</v>
+      </c>
       <c r="O12" t="s">
         <v>18</v>
       </c>
@@ -584,6 +638,9 @@
       <c r="A13">
         <v>3</v>
       </c>
+      <c r="K13" t="s">
+        <v>29</v>
+      </c>
       <c r="O13" t="s">
         <v>18</v>
       </c>
@@ -602,6 +659,9 @@
       <c r="A14">
         <v>4</v>
       </c>
+      <c r="K14" t="s">
+        <v>27</v>
+      </c>
       <c r="O14" t="s">
         <v>18</v>
       </c>
@@ -612,6 +672,9 @@
       <c r="A15">
         <v>5</v>
       </c>
+      <c r="K15" t="s">
+        <v>30</v>
+      </c>
       <c r="O15" t="s">
         <v>18</v>
       </c>
@@ -622,20 +685,29 @@
       <c r="A16">
         <v>6</v>
       </c>
+      <c r="K16" t="s">
+        <v>31</v>
+      </c>
       <c r="O16" t="s">
         <v>18</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="U16" s="1"/>
     </row>
-    <row r="17" spans="15:21">
+    <row r="17" spans="11:21">
+      <c r="K17" t="s">
+        <v>32</v>
+      </c>
       <c r="O17" t="s">
         <v>18</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="15:21">
+    <row r="18" spans="11:21">
+      <c r="K18" t="s">
+        <v>27</v>
+      </c>
       <c r="O18" t="s">
         <v>6</v>
       </c>
@@ -646,7 +718,10 @@
         <v>45700</v>
       </c>
     </row>
-    <row r="19" spans="15:21">
+    <row r="19" spans="11:21">
+      <c r="K19" t="s">
+        <v>33</v>
+      </c>
       <c r="O19" t="s">
         <v>6</v>
       </c>
@@ -660,7 +735,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="15:21">
+    <row r="20" spans="11:21">
       <c r="O20" t="s">
         <v>24</v>
       </c>
@@ -674,7 +749,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="15:21">
+    <row r="21" spans="11:21">
       <c r="O21" t="s">
         <v>6</v>
       </c>
@@ -685,7 +760,7 @@
         <v>45700</v>
       </c>
     </row>
-    <row r="22" spans="15:21">
+    <row r="22" spans="11:21">
       <c r="O22" t="s">
         <v>6</v>
       </c>
@@ -696,7 +771,7 @@
         <v>45700</v>
       </c>
     </row>
-    <row r="23" spans="15:21">
+    <row r="23" spans="11:21">
       <c r="O23" t="s">
         <v>6</v>
       </c>
@@ -707,7 +782,7 @@
         <v>45700</v>
       </c>
     </row>
-    <row r="24" spans="15:21">
+    <row r="24" spans="11:21">
       <c r="O24" t="s">
         <v>6</v>
       </c>
@@ -718,7 +793,7 @@
         <v>45701</v>
       </c>
     </row>
-    <row r="25" spans="15:21">
+    <row r="25" spans="11:21">
       <c r="O25" t="s">
         <v>6</v>
       </c>
@@ -729,7 +804,7 @@
         <v>45702</v>
       </c>
     </row>
-    <row r="26" spans="15:21">
+    <row r="26" spans="11:21">
       <c r="O26" t="s">
         <v>6</v>
       </c>
@@ -740,7 +815,7 @@
         <v>45703</v>
       </c>
     </row>
-    <row r="27" spans="15:21">
+    <row r="27" spans="11:21">
       <c r="O27" t="s">
         <v>6</v>
       </c>
@@ -751,7 +826,7 @@
         <v>45704</v>
       </c>
     </row>
-    <row r="28" spans="15:21">
+    <row r="28" spans="11:21">
       <c r="O28" t="s">
         <v>6</v>
       </c>
@@ -762,7 +837,7 @@
         <v>45705</v>
       </c>
     </row>
-    <row r="29" spans="15:21">
+    <row r="29" spans="11:21">
       <c r="O29" t="s">
         <v>6</v>
       </c>
@@ -773,7 +848,7 @@
         <v>45706</v>
       </c>
     </row>
-    <row r="30" spans="15:21">
+    <row r="30" spans="11:21">
       <c r="O30" t="s">
         <v>6</v>
       </c>
@@ -784,7 +859,7 @@
         <v>45707</v>
       </c>
     </row>
-    <row r="31" spans="15:21">
+    <row r="31" spans="11:21">
       <c r="O31" t="s">
         <v>6</v>
       </c>
@@ -795,7 +870,7 @@
         <v>45708</v>
       </c>
     </row>
-    <row r="32" spans="15:21">
+    <row r="32" spans="11:21">
       <c r="O32" t="s">
         <v>6</v>
       </c>

--- a/input_sample/sample2.xlsx
+++ b/input_sample/sample2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Script\TestProgressRecord\input_sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9782764F-8721-4377-B915-041212E69AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1A875D-2996-447D-9B2E-8C294FB02044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7365" yWindow="600" windowWidth="23490" windowHeight="13785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10365" yWindow="6375" windowWidth="20775" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テスト項目" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="32">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -123,20 +123,6 @@
   </si>
   <si>
     <t>Cさん</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>環境1</t>
-    <rPh sb="0" eb="2">
-      <t>カンキョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>環境2</t>
-    <rPh sb="0" eb="2">
-      <t>カンキョウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -516,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U48"/>
+  <dimension ref="A10:U48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -528,14 +514,6 @@
     <col min="21" max="21" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="O1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S1" t="s">
-        <v>22</v>
-      </c>
-    </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
         <v>0</v>
@@ -568,16 +546,16 @@
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O10" t="s">
         <v>2</v>
       </c>
       <c r="P10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q10" t="s">
         <v>1</v>
@@ -597,7 +575,7 @@
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O11" t="s">
         <v>18</v>
@@ -618,7 +596,7 @@
         <v>2</v>
       </c>
       <c r="K12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O12" t="s">
         <v>18</v>
@@ -639,7 +617,7 @@
         <v>3</v>
       </c>
       <c r="K13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O13" t="s">
         <v>18</v>
@@ -660,7 +638,7 @@
         <v>4</v>
       </c>
       <c r="K14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O14" t="s">
         <v>18</v>
@@ -673,7 +651,7 @@
         <v>5</v>
       </c>
       <c r="K15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O15" t="s">
         <v>18</v>
@@ -686,7 +664,7 @@
         <v>6</v>
       </c>
       <c r="K16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O16" t="s">
         <v>18</v>
@@ -696,7 +674,7 @@
     </row>
     <row r="17" spans="11:21">
       <c r="K17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O17" t="s">
         <v>18</v>
@@ -706,7 +684,7 @@
     </row>
     <row r="18" spans="11:21">
       <c r="K18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O18" t="s">
         <v>6</v>
@@ -720,7 +698,7 @@
     </row>
     <row r="19" spans="11:21">
       <c r="K19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O19" t="s">
         <v>6</v>
@@ -737,7 +715,7 @@
     </row>
     <row r="20" spans="11:21">
       <c r="O20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="P20" t="s">
         <v>20</v>
